--- a/results/words_scores_tr_infr.xlsx
+++ b/results/words_scores_tr_infr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C353"/>
+  <dimension ref="A1:C287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">поверхностных  </t>
+          <t xml:space="preserve">элемент  </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1810576254313229</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">крутильных  </t>
+          <t xml:space="preserve">конструкций  </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1814072812089505</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">производство  </t>
+          <t xml:space="preserve">конструкции  </t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1825839934632627</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">давлениями  </t>
+          <t xml:space="preserve">строительный  </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1833736171988493</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">гироскопических  </t>
+          <t xml:space="preserve">строительная  </t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1867165456443669</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">выработку  </t>
+          <t xml:space="preserve">балка  </t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1911291455064769</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">водоемов  </t>
+          <t xml:space="preserve">из  </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0939056162453635</v>
+        <v>0.1987557602698181</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">способ  </t>
+          <t xml:space="preserve">изготовления  </t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2020071782308943</v>
+        <v>0.227332143957894</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3337727027458808</v>
+        <v>0.2523086214156716</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3365451006430675</v>
+        <v>0.2533333822541409</v>
       </c>
     </row>
     <row r="12">
@@ -596,11 +596,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">крепления  </t>
+          <t xml:space="preserve">колеса  </t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2233421200729942</v>
+        <v>0.2355405398403742</v>
       </c>
     </row>
     <row r="14">
@@ -609,11 +609,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">материала  </t>
+          <t xml:space="preserve">средств  </t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2275897109452078</v>
+        <v>0.2357099667015759</v>
       </c>
     </row>
     <row r="15">
@@ -622,11 +622,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">строительства  </t>
+          <t xml:space="preserve">транспортных  </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.230682363909652</v>
+        <v>0.2378728902114813</v>
       </c>
     </row>
     <row r="16">
@@ -635,11 +635,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">из  </t>
+          <t xml:space="preserve">автомобиля  </t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2346634422035016</v>
+        <v>0.2450780882530128</v>
       </c>
     </row>
     <row r="17">
@@ -648,11 +648,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">конструкции  </t>
+          <t xml:space="preserve">средством  </t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2396551859616358</v>
+        <v>0.2460438042580207</v>
       </c>
     </row>
     <row r="18">
@@ -661,11 +661,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">элемент  </t>
+          <t xml:space="preserve">транспортным  </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2437588652296725</v>
+        <v>0.2472739686973265</v>
       </c>
     </row>
     <row r="19">
@@ -674,11 +674,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">строительный  </t>
+          <t xml:space="preserve">средства  </t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2450288068301089</v>
+        <v>0.2605166468273473</v>
       </c>
     </row>
     <row r="20">
@@ -687,11 +687,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">конструкций  </t>
+          <t xml:space="preserve">транспортного  </t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2491363151751541</v>
+        <v>0.2626179394099432</v>
       </c>
     </row>
     <row r="21">
@@ -700,11 +700,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">балка  </t>
+          <t xml:space="preserve">средство  </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2561437687490291</v>
+        <v>0.2662522649798196</v>
       </c>
     </row>
     <row r="22">
@@ -713,11 +713,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">изготовления  </t>
+          <t xml:space="preserve">транспортное  </t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3001086191947628</v>
+        <v>0.2684105941424724</v>
       </c>
     </row>
     <row r="23">
@@ -741,11 +741,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">самолет  </t>
+          <t xml:space="preserve">преобразование  </t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.305362292648951</v>
+        <v>0.1680800032371315</v>
       </c>
     </row>
     <row r="25">
@@ -754,11 +754,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">вертолета  </t>
+          <t xml:space="preserve">индуктивная  </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3075139297613226</v>
+        <v>0.1680800032371315</v>
       </c>
     </row>
     <row r="26">
@@ -767,11 +767,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">воздушного  </t>
+          <t xml:space="preserve">площадки  </t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3268400742833661</v>
+        <v>0.1680800032371315</v>
       </c>
     </row>
     <row r="27">
@@ -780,11 +780,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">самолета  </t>
+          <t xml:space="preserve">энергопередающей  </t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3415946198859885</v>
+        <v>0.1680800032371315</v>
       </c>
     </row>
     <row r="28">
@@ -793,11 +793,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">посадки  </t>
+          <t xml:space="preserve">накопление  </t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.341650764823308</v>
+        <v>0.1680800032371315</v>
       </c>
     </row>
     <row r="29">
@@ -806,11 +806,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">крыла  </t>
+          <t xml:space="preserve">энергии  </t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3595049195261995</v>
+        <v>0.1814039758478183</v>
       </c>
     </row>
     <row r="30">
@@ -819,11 +819,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">аппарат  </t>
+          <t xml:space="preserve">рекуперация  </t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3602297927087308</v>
+        <v>0.1849238560668413</v>
       </c>
     </row>
     <row r="31">
@@ -832,11 +832,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">летательный  </t>
+          <t xml:space="preserve">способ  </t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3925394758143425</v>
+        <v>0.2379251197215458</v>
       </c>
     </row>
     <row r="32">
@@ -845,11 +845,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">аппарата  </t>
+          <t xml:space="preserve">производства  </t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4056220300585992</v>
+        <v>0.3860863156086878</v>
       </c>
     </row>
     <row r="33">
@@ -858,11 +858,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">летательного  </t>
+          <t xml:space="preserve">электроэнергии  </t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4694926983362736</v>
+        <v>0.3890703958829184</v>
       </c>
     </row>
     <row r="34">
@@ -886,11 +886,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">обнаружение  </t>
+          <t xml:space="preserve">самолет  </t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2598538798904402</v>
+        <v>0.3223191996338017</v>
       </c>
     </row>
     <row r="36">
@@ -899,11 +899,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">управления  </t>
+          <t xml:space="preserve">вертолета  </t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2615894922425128</v>
+        <v>0.3241058167452869</v>
       </c>
     </row>
     <row r="37">
@@ -912,11 +912,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">машиночитаемый  </t>
+          <t xml:space="preserve">воздушного  </t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2720056264940616</v>
+        <v>0.3403842780822868</v>
       </c>
     </row>
     <row r="38">
@@ -925,11 +925,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">носитель  </t>
+          <t xml:space="preserve">самолета  </t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2749404229905466</v>
+        <v>0.3617812270687077</v>
       </c>
     </row>
     <row r="39">
@@ -938,11 +938,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">средств  </t>
+          <t xml:space="preserve">посадки  </t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2782344025092477</v>
+        <v>0.3638426292313939</v>
       </c>
     </row>
     <row r="40">
@@ -951,11 +951,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">транспортных  </t>
+          <t xml:space="preserve">крыла  </t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2809378412955936</v>
+        <v>0.3816925474653864</v>
       </c>
     </row>
     <row r="41">
@@ -964,11 +964,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">водителя  </t>
+          <t xml:space="preserve">аппарат  </t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3032241913036037</v>
+        <v>0.3879576703315359</v>
       </c>
     </row>
     <row r="42">
@@ -977,11 +977,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">движения  </t>
+          <t xml:space="preserve">летательный  </t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.3220793104485469</v>
+        <v>0.4205161255731144</v>
       </c>
     </row>
     <row r="43">
@@ -990,11 +990,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">транспортным  </t>
+          <t xml:space="preserve">аппарата  </t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.3616833806960494</v>
+        <v>0.4423379759355497</v>
       </c>
     </row>
     <row r="44">
@@ -1003,11 +1003,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">средством  </t>
+          <t xml:space="preserve">летательного  </t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3646232787116732</v>
+        <v>0.5076808427672993</v>
       </c>
     </row>
     <row r="45">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2736475280755779</v>
+        <v>0.2814513360442231</v>
       </c>
     </row>
     <row r="47">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2736475280755779</v>
+        <v>0.2814513360442231</v>
       </c>
     </row>
     <row r="48">
@@ -1057,11 +1057,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">речная  </t>
+          <t xml:space="preserve">гидроэнергетическое  </t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2736475280755779</v>
+        <v>0.2814513360442231</v>
       </c>
     </row>
     <row r="49">
@@ -1070,11 +1070,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">гидроэлектростанции  </t>
+          <t xml:space="preserve">трубопроводу  </t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.2736475280755779</v>
+        <v>0.2814513360442231</v>
       </c>
     </row>
     <row r="50">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2934982040832745</v>
+        <v>0.3043775570300289</v>
       </c>
     </row>
     <row r="51">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.3146286922314795</v>
+        <v>0.3255485146778842</v>
       </c>
     </row>
     <row r="52">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">гидростатическая  </t>
+          <t xml:space="preserve">капиллярная  </t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.3507964859310978</v>
+        <v>0.3617773883850051</v>
       </c>
     </row>
     <row r="53">
@@ -1122,11 +1122,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">капиллярная  </t>
+          <t xml:space="preserve">гидростатическая  </t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3507964859310978</v>
+        <v>0.3617773883850051</v>
       </c>
     </row>
     <row r="54">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.202106572636502</v>
+        <v>1.320306810087076</v>
       </c>
     </row>
     <row r="55">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.202449394916273</v>
+        <v>1.321097893315173</v>
       </c>
     </row>
     <row r="56">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">акустическая  </t>
+          <t xml:space="preserve">шумопоглощающая  </t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.5840656928209632</v>
+        <v>0.5921079336829673</v>
       </c>
     </row>
     <row r="58">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">резонансными  </t>
+          <t xml:space="preserve">акустическая  </t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.6040241296097214</v>
+        <v>0.6278295960381822</v>
       </c>
     </row>
     <row r="59">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">звукопоглощающая  </t>
+          <t xml:space="preserve">звукоизолирующее  </t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.6063290386553259</v>
+        <v>0.6375707701768859</v>
       </c>
     </row>
     <row r="60">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">шума  </t>
+          <t xml:space="preserve">резонансными  </t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.611208283665664</v>
+        <v>0.6392080442691054</v>
       </c>
     </row>
     <row r="61">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">производственного  </t>
+          <t xml:space="preserve">штучный  </t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.6130478777696201</v>
+        <v>0.6455925858770006</v>
       </c>
     </row>
     <row r="62">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">штучный  </t>
+          <t xml:space="preserve">кабина  </t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.6132628288863224</v>
+        <v>0.6827701825627865</v>
       </c>
     </row>
     <row r="63">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6530324791336216</v>
+        <v>0.6888064527101208</v>
       </c>
     </row>
     <row r="64">
@@ -1267,11 +1267,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">звукопоглотитель  </t>
+          <t xml:space="preserve">звукоизоляции  </t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.6618628524697669</v>
+        <v>0.6914004170099569</v>
       </c>
     </row>
     <row r="65">
@@ -1280,11 +1280,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">звукоизоляции  </t>
+          <t xml:space="preserve">звукопоглотитель  </t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.6703219735722038</v>
+        <v>0.6984350356499859</v>
       </c>
     </row>
     <row r="66">
@@ -1293,11 +1293,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">звукопоглощающий  </t>
+          <t xml:space="preserve">звукопоглощающая  </t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.7265358484596875</v>
+        <v>0.7076708881997515</v>
       </c>
     </row>
     <row r="67">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.3429686536517016</v>
+        <v>0.3597110521081189</v>
       </c>
     </row>
     <row r="69">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.3429686536517016</v>
+        <v>0.3597110521081189</v>
       </c>
     </row>
     <row r="70">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.3498584671053837</v>
+        <v>0.36754457055107</v>
       </c>
     </row>
     <row r="71">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.3568780629015522</v>
+        <v>0.375454276729662</v>
       </c>
     </row>
     <row r="72">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.3577250734175359</v>
+        <v>0.3755110964372064</v>
       </c>
     </row>
     <row r="73">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.3945435435177672</v>
+        <v>0.4150803206155178</v>
       </c>
     </row>
     <row r="74">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">аппарата  </t>
+          <t xml:space="preserve">космический  </t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.399596801703535</v>
+        <v>0.4294253953475559</v>
       </c>
     </row>
     <row r="75">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">космический  </t>
+          <t xml:space="preserve">аппарата  </t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.4067662568717463</v>
+        <v>0.4343620506750283</v>
       </c>
     </row>
     <row r="76">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.452255355036498</v>
+        <v>0.4783529638766902</v>
       </c>
     </row>
     <row r="77">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.6382760343522071</v>
+        <v>0.681255827231811</v>
       </c>
     </row>
     <row r="78">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">водоподготовки  </t>
+          <t xml:space="preserve">состава  </t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.3530089612610284</v>
+        <v>0.3978199643382969</v>
       </c>
     </row>
     <row r="80">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">сточных  </t>
+          <t xml:space="preserve">железнодорожное  </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.3530089612610284</v>
+        <v>0.3992405468607918</v>
       </c>
     </row>
     <row r="81">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">сливное  </t>
+          <t xml:space="preserve">железнодорожная  </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.3530089612610284</v>
+        <v>0.3992405468607918</v>
       </c>
     </row>
     <row r="82">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">пресной  </t>
+          <t xml:space="preserve">вагонов  </t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.3868233434752223</v>
+        <v>0.4014214484738784</v>
       </c>
     </row>
     <row r="83">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">сапропеля  </t>
+          <t xml:space="preserve">вагон  </t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.401265612283964</v>
+        <v>0.4200955432710948</v>
       </c>
     </row>
     <row r="84">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">атмосферного  </t>
+          <t xml:space="preserve">железнодорожный  </t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.401265612283964</v>
+        <v>0.4336767991280637</v>
       </c>
     </row>
     <row r="85">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">водоёмов  </t>
+          <t xml:space="preserve">поезда  </t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.4266367218603334</v>
+        <v>0.4462459187079398</v>
       </c>
     </row>
     <row r="86">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">добычи  </t>
+          <t xml:space="preserve">вагона  </t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.4266367218603334</v>
+        <v>0.4657846075764948</v>
       </c>
     </row>
     <row r="87">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">очистки  </t>
+          <t xml:space="preserve">железнодорожных  </t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.4311200473916491</v>
+        <v>0.4915017300176945</v>
       </c>
     </row>
     <row r="88">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">воды  </t>
+          <t xml:space="preserve">железнодорожного  </t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.5221390109115167</v>
+        <v>0.7249528766208143</v>
       </c>
     </row>
     <row r="89">
@@ -1611,11 +1611,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">спасательный  </t>
+          <t xml:space="preserve">петля  </t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.3639642331956776</v>
+        <v>0.4898832718622145</v>
       </c>
     </row>
     <row r="91">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">подводных  </t>
+          <t xml:space="preserve">дверной  </t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.4029332650299896</v>
+        <v>0.4982564339027447</v>
       </c>
     </row>
     <row r="92">
@@ -1637,11 +1637,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">судов  </t>
+          <t xml:space="preserve">окно  </t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.4235999870568015</v>
+        <v>0.523592201572286</v>
       </c>
     </row>
     <row r="93">
@@ -1650,11 +1650,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">плавучая  </t>
+          <t xml:space="preserve">створки  </t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.4419542276311181</v>
+        <v>0.5272573662451904</v>
       </c>
     </row>
     <row r="94">
@@ -1663,11 +1663,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">лодки  </t>
+          <t xml:space="preserve">окна  </t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.4555341400844917</v>
+        <v>0.5298138533523427</v>
       </c>
     </row>
     <row r="95">
@@ -1676,11 +1676,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">подводный  </t>
+          <t xml:space="preserve">дверная  </t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.4757898918822169</v>
+        <v>0.5397064879580572</v>
       </c>
     </row>
     <row r="96">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">подводного  </t>
+          <t xml:space="preserve">дверей  </t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.4798406471308982</v>
+        <v>0.5677987188932836</v>
       </c>
     </row>
     <row r="97">
@@ -1702,11 +1702,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">подводной  </t>
+          <t xml:space="preserve">дверь  </t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.4798406471308982</v>
+        <v>0.5701089379966303</v>
       </c>
     </row>
     <row r="98">
@@ -1715,11 +1715,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">судно  </t>
+          <t xml:space="preserve">мебели  </t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.5164788355472313</v>
+        <v>0.6065756229914435</v>
       </c>
     </row>
     <row r="99">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">судна  </t>
+          <t xml:space="preserve">двери  </t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.5307127646125167</v>
+        <v>0.7251226830754798</v>
       </c>
     </row>
     <row r="100">
@@ -1756,11 +1756,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">грузовых  </t>
+          <t xml:space="preserve">сточных  </t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.3305739181293441</v>
+        <v>0.3609164817587227</v>
       </c>
     </row>
     <row r="102">
@@ -1769,11 +1769,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">перевозки  </t>
+          <t xml:space="preserve">вод  </t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.3376769869482901</v>
+        <v>0.3609164817587227</v>
       </c>
     </row>
     <row r="103">
@@ -1782,11 +1782,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">погрузки  </t>
+          <t xml:space="preserve">удаления  </t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.3513019359181215</v>
+        <v>0.3887739690938699</v>
       </c>
     </row>
     <row r="104">
@@ -1795,11 +1795,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve">грузов  </t>
+          <t xml:space="preserve">водоподготовки  </t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.3541586117348035</v>
+        <v>0.3953641968693085</v>
       </c>
     </row>
     <row r="105">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">автотранспортное  </t>
+          <t xml:space="preserve">сливное  </t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.3551494343375133</v>
+        <v>0.3953641968693085</v>
       </c>
     </row>
     <row r="106">
@@ -1821,11 +1821,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">отделки  </t>
+          <t xml:space="preserve">воды  </t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.3787511705577868</v>
+        <v>0.4341716222861731</v>
       </c>
     </row>
     <row r="107">
@@ -1834,11 +1834,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">грузового  </t>
+          <t xml:space="preserve">сапропеля  </t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.3815596299227989</v>
+        <v>0.4505816211120368</v>
       </c>
     </row>
     <row r="108">
@@ -1847,11 +1847,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">грузовой  </t>
+          <t xml:space="preserve">водоёмов  </t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3866754710883286</v>
+        <v>0.4797548168608931</v>
       </c>
     </row>
     <row r="109">
@@ -1860,11 +1860,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">транспортное  </t>
+          <t xml:space="preserve">добычи  </t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.3921547638853705</v>
+        <v>0.4797548168608931</v>
       </c>
     </row>
     <row r="110">
@@ -1873,11 +1873,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">средство  </t>
+          <t xml:space="preserve">очистки  </t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.402535764733949</v>
+        <v>0.4804065455508435</v>
       </c>
     </row>
     <row r="111">
@@ -1901,11 +1901,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">пути  </t>
+          <t xml:space="preserve">боковая  </t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.3719466577045895</v>
+        <v>0.4096496844328996</v>
       </c>
     </row>
     <row r="113">
@@ -1914,11 +1914,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">состава  </t>
+          <t xml:space="preserve">спинка  </t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.3792323223730197</v>
+        <v>0.4207676821456622</v>
       </c>
     </row>
     <row r="114">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">железнодорожное  </t>
+          <t xml:space="preserve">себя  </t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.3844250030027627</v>
+        <v>0.4532448090402106</v>
       </c>
     </row>
     <row r="115">
@@ -1940,11 +1940,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">вагон  </t>
+          <t xml:space="preserve">спинки  </t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.4007785806764848</v>
+        <v>0.4609279019606859</v>
       </c>
     </row>
     <row r="116">
@@ -1953,11 +1953,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">вагонов  </t>
+          <t xml:space="preserve">узел  </t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.403743228119437</v>
+        <v>0.4691721858200979</v>
       </c>
     </row>
     <row r="117">
@@ -1966,11 +1966,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">железнодорожный  </t>
+          <t xml:space="preserve">сиденье  </t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.4156532401119289</v>
+        <v>0.6399559101046191</v>
       </c>
     </row>
     <row r="118">
@@ -1979,11 +1979,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">поезда  </t>
+          <t xml:space="preserve">безопасности  </t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.4281907929316447</v>
+        <v>0.6662680965064606</v>
       </c>
     </row>
     <row r="119">
@@ -1992,11 +1992,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">вагона  </t>
+          <t xml:space="preserve">подушка  </t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.4433758081187709</v>
+        <v>0.7266207136570115</v>
       </c>
     </row>
     <row r="120">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve">железнодорожных  </t>
+          <t xml:space="preserve">сиденья  </t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.456082690666542</v>
+        <v>0.7877754040716132</v>
       </c>
     </row>
     <row r="121">
@@ -2018,11 +2018,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">железнодорожного  </t>
+          <t xml:space="preserve">подушки  </t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.679853096747529</v>
+        <v>0.7902589205740765</v>
       </c>
     </row>
     <row r="122">
@@ -2046,11 +2046,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve">петля  </t>
+          <t xml:space="preserve">предохранительной  </t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.4688113048427277</v>
+        <v>0.5556066400675339</v>
       </c>
     </row>
     <row r="124">
@@ -2059,11 +2059,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">дверной  </t>
+          <t xml:space="preserve">стеновая  </t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.4785642327695077</v>
+        <v>0.566002196557528</v>
       </c>
     </row>
     <row r="125">
@@ -2072,11 +2072,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">окно  </t>
+          <t xml:space="preserve">одноразовыми  </t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.5017934597168204</v>
+        <v>0.5762344087006722</v>
       </c>
     </row>
     <row r="126">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">створки  </t>
+          <t xml:space="preserve">дополнительным  </t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.5048122888072335</v>
+        <v>0.6273140216567319</v>
       </c>
     </row>
     <row r="127">
@@ -2098,11 +2098,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve">окна  </t>
+          <t xml:space="preserve">демпфером  </t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.5061498207771149</v>
+        <v>0.6598446899452624</v>
       </c>
     </row>
     <row r="128">
@@ -2111,11 +2111,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve">дверная  </t>
+          <t xml:space="preserve">взрывозащитное  </t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.5172368591641429</v>
+        <v>0.6610713702344337</v>
       </c>
     </row>
     <row r="129">
@@ -2124,11 +2124,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">дверей  </t>
+          <t xml:space="preserve">резонансная  </t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.5428932290170476</v>
+        <v>0.6775765851387821</v>
       </c>
     </row>
     <row r="130">
@@ -2137,11 +2137,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">дверь  </t>
+          <t xml:space="preserve">демпфирующим  </t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.5446451333135</v>
+        <v>0.7089924327312215</v>
       </c>
     </row>
     <row r="131">
@@ -2150,11 +2150,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">мебели  </t>
+          <t xml:space="preserve">панель  </t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.5779577175272058</v>
+        <v>0.8192470209254399</v>
       </c>
     </row>
     <row r="132">
@@ -2163,11 +2163,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">двери  </t>
+          <t xml:space="preserve">противовзрывная  </t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.6837581959649278</v>
+        <v>1.052764448877168</v>
       </c>
     </row>
     <row r="133">
@@ -2191,11 +2191,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">электромобиль  </t>
+          <t xml:space="preserve">высокого  </t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.3807338774084033</v>
+        <v>0.4264333721084199</v>
       </c>
     </row>
     <row r="135">
@@ -2204,11 +2204,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">электрической  </t>
+          <t xml:space="preserve">изображениям  </t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.3937999382058919</v>
+        <v>0.4264333721084199</v>
       </c>
     </row>
     <row r="136">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">электрическая  </t>
+          <t xml:space="preserve">классификаторы  </t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.4026121816402821</v>
+        <v>0.4264333721084199</v>
       </c>
     </row>
     <row r="137">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">мощности  </t>
+          <t xml:space="preserve">сцен  </t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.4205574967475946</v>
+        <v>0.4264333721084199</v>
       </c>
     </row>
     <row r="138">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">зарядная  </t>
+          <t xml:space="preserve">дорожной  </t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.4244356836788052</v>
+        <v>0.4291321006409764</v>
       </c>
     </row>
     <row r="139">
@@ -2256,11 +2256,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">индуктивной  </t>
+          <t xml:space="preserve">люминесцентная  </t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.4329620683862621</v>
+        <v>0.5160212257307466</v>
       </c>
     </row>
     <row r="140">
@@ -2269,11 +2269,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">передачи  </t>
+          <t xml:space="preserve">разметки  </t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.4401311673799363</v>
+        <v>0.5160212257307466</v>
       </c>
     </row>
     <row r="141">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">энергии  </t>
+          <t xml:space="preserve">дорожный  </t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.4427727144925448</v>
+        <v>1.682852951701016</v>
       </c>
     </row>
     <row r="142">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">электрического  </t>
+          <t xml:space="preserve">светофор  </t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.4753813639218977</v>
+        <v>1.703569669135901</v>
       </c>
     </row>
     <row r="143">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">зарядки  </t>
+          <t xml:space="preserve">геометрический  </t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.4982042627887973</v>
+        <v>1.708883327222763</v>
       </c>
     </row>
     <row r="144">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">резонансная  </t>
+          <t xml:space="preserve">влажности  </t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.5232199275577722</v>
+        <v>0.3957458127489042</v>
       </c>
     </row>
     <row r="146">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">взрывоопасных  </t>
+          <t xml:space="preserve">охлаждающее  </t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.5271987002663679</v>
+        <v>0.3957458127489042</v>
       </c>
     </row>
     <row r="147">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">панель  </t>
+          <t xml:space="preserve">рефрижераторный  </t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.5433977854506536</v>
+        <v>0.3957458127489042</v>
       </c>
     </row>
     <row r="148">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve">ограждения  </t>
+          <t xml:space="preserve">сжатого  </t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.5502354468971096</v>
+        <v>0.3976022897838823</v>
       </c>
     </row>
     <row r="149">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">взрывозащиты  </t>
+          <t xml:space="preserve">холодильник  </t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.5637779837457898</v>
+        <v>0.4367990840464354</v>
       </c>
     </row>
     <row r="150">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">взрывозащитное  </t>
+          <t xml:space="preserve">салона  </t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.5965016752452502</v>
+        <v>0.4482554160122369</v>
       </c>
     </row>
     <row r="151">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">зданий  </t>
+          <t xml:space="preserve">обогрева  </t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.6031773687353392</v>
+        <v>0.5259783897389949</v>
       </c>
     </row>
     <row r="152">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">разрушающаяся  </t>
+          <t xml:space="preserve">кондиционирования  </t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.6484656878435904</v>
+        <v>0.574444951605083</v>
       </c>
     </row>
     <row r="153">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve">взрывозащитная  </t>
+          <t xml:space="preserve">воздуха  </t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.6484656878435904</v>
+        <v>0.6525188856159713</v>
       </c>
     </row>
     <row r="154">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">противовзрывная  </t>
+          <t xml:space="preserve">охлаждения  </t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.7029922956713618</v>
+        <v>0.7117516638814407</v>
       </c>
     </row>
     <row r="155">
@@ -2481,11 +2481,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">спинка  </t>
+          <t xml:space="preserve">ледяного  </t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.4088604917472064</v>
+        <v>0.4622989031186769</v>
       </c>
     </row>
     <row r="157">
@@ -2494,11 +2494,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">стол  </t>
+          <t xml:space="preserve">снегоуплотнительных  </t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.4088604917472064</v>
+        <v>0.4622989031186769</v>
       </c>
     </row>
     <row r="158">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve">себя  </t>
+          <t xml:space="preserve">передвижения  </t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.4367027642169974</v>
+        <v>0.4665481215610549</v>
       </c>
     </row>
     <row r="159">
@@ -2520,11 +2520,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">узел  </t>
+          <t xml:space="preserve">снегоход  </t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.4390041690426535</v>
+        <v>0.4983633644749255</v>
       </c>
     </row>
     <row r="160">
@@ -2533,11 +2533,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve">спинки  </t>
+          <t xml:space="preserve">снегохода  </t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.4478842284051995</v>
+        <v>0.4983633644749255</v>
       </c>
     </row>
     <row r="161">
@@ -2546,11 +2546,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">сиденье  </t>
+          <t xml:space="preserve">уборки  </t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.6132106053211839</v>
+        <v>0.5153895995804796</v>
       </c>
     </row>
     <row r="162">
@@ -2559,11 +2559,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve">безопасности  </t>
+          <t xml:space="preserve">снежной  </t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.6214361875239889</v>
+        <v>0.5566843922562241</v>
       </c>
     </row>
     <row r="163">
@@ -2572,11 +2572,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">подушка  </t>
+          <t xml:space="preserve">ледяной  </t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.6977448487968132</v>
+        <v>0.5811363461881699</v>
       </c>
     </row>
     <row r="164">
@@ -2585,11 +2585,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">сиденья  </t>
+          <t xml:space="preserve">снега  </t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.7401676288414371</v>
+        <v>0.6965539112299602</v>
       </c>
     </row>
     <row r="165">
@@ -2598,11 +2598,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">подушки  </t>
+          <t xml:space="preserve">льда  </t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.7553319539698338</v>
+        <v>0.710458903324422</v>
       </c>
     </row>
     <row r="166">
@@ -2626,11 +2626,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">реверберационной  </t>
+          <t xml:space="preserve">акустическая  </t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.6409281492672452</v>
+        <v>0.8192277769681471</v>
       </c>
     </row>
     <row r="168">
@@ -2639,11 +2639,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">ограждение  </t>
+          <t xml:space="preserve">уровнем  </t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.647501513799164</v>
+        <v>0.8219326238541013</v>
       </c>
     </row>
     <row r="169">
@@ -2652,11 +2652,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">оборудованием  </t>
+          <t xml:space="preserve">производственных  </t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.6508767303045856</v>
+        <v>0.8611745099425596</v>
       </c>
     </row>
     <row r="170">
@@ -2665,11 +2665,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve">пск  </t>
+          <t xml:space="preserve">помещений  </t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.6814525745053875</v>
+        <v>0.8631656385912647</v>
       </c>
     </row>
     <row r="171">
@@ -2678,11 +2678,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">прядильных  </t>
+          <t xml:space="preserve">низким  </t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.6814525745053875</v>
+        <v>0.8631995282788888</v>
       </c>
     </row>
     <row r="172">
@@ -2691,11 +2691,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve">акустическое  </t>
+          <t xml:space="preserve">оборудованием  </t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.7172133633940762</v>
+        <v>0.9111324395557732</v>
       </c>
     </row>
     <row r="173">
@@ -2704,11 +2704,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">цеха  </t>
+          <t xml:space="preserve">шумозащитным  </t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.7376540821441971</v>
+        <v>1.050020241639436</v>
       </c>
     </row>
     <row r="174">
@@ -2717,11 +2717,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve">виброактивным  </t>
+          <t xml:space="preserve">помещение  </t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.8212157322056691</v>
+        <v>1.061094959294449</v>
       </c>
     </row>
     <row r="175">
@@ -2730,11 +2730,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">оператора  </t>
+          <t xml:space="preserve">комфортное  </t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.8342584747535093</v>
+        <v>1.087919357017235</v>
       </c>
     </row>
     <row r="176">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">акустической  </t>
+          <t xml:space="preserve">акустически  </t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.9103008403388835</v>
+        <v>1.116621333701933</v>
       </c>
     </row>
     <row r="177">
@@ -2771,11 +2771,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">дорожной  </t>
+          <t xml:space="preserve">объектах  </t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.4132834478681757</v>
+        <v>0.5339911907591171</v>
       </c>
     </row>
     <row r="179">
@@ -2784,11 +2784,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve">высокого  </t>
+          <t xml:space="preserve">беспилотного  </t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.4151772136717509</v>
+        <v>0.5541394236366022</v>
       </c>
     </row>
     <row r="180">
@@ -2797,11 +2797,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">изображениям  </t>
+          <t xml:space="preserve">организации  </t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.4151772136717509</v>
+        <v>0.5863045672346625</v>
       </c>
     </row>
     <row r="181">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">классификаторы  </t>
+          <t xml:space="preserve">опасных  </t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.4151772136717509</v>
+        <v>0.5913745519820975</v>
       </c>
     </row>
     <row r="182">
@@ -2823,11 +2823,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve">сцен  </t>
+          <t xml:space="preserve">летательных  </t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.4151772136717509</v>
+        <v>0.5967456213516266</v>
       </c>
     </row>
     <row r="183">
@@ -2836,11 +2836,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve">люминесцентная  </t>
+          <t xml:space="preserve">беспилотный  </t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.5001201616289268</v>
+        <v>0.6060002448349869</v>
       </c>
     </row>
     <row r="184">
@@ -2849,11 +2849,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve">разметки  </t>
+          <t xml:space="preserve">беспилотных  </t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.5001201616289268</v>
+        <v>0.7198039582047083</v>
       </c>
     </row>
     <row r="185">
@@ -2862,11 +2862,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve">дорожный  </t>
+          <t xml:space="preserve">беспилотными  </t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.576399155949307</v>
+        <v>0.8023116284188173</v>
       </c>
     </row>
     <row r="186">
@@ -2875,11 +2875,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">светофор  </t>
+          <t xml:space="preserve">аппаратами  </t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.596893277713469</v>
+        <v>0.8177986091053867</v>
       </c>
     </row>
     <row r="187">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">геометрический  </t>
+          <t xml:space="preserve">летательными  </t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.60215114091464</v>
+        <v>0.8234044996341562</v>
       </c>
     </row>
     <row r="188">
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">ветроэнергетической  </t>
+          <t xml:space="preserve">судов  </t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.3798225958709091</v>
+        <v>0.4523932908734773</v>
       </c>
     </row>
     <row r="190">
@@ -2929,11 +2929,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">охлаждением  </t>
+          <t xml:space="preserve">плавучего  </t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.3798225958709091</v>
+        <v>0.456042878597798</v>
       </c>
     </row>
     <row r="191">
@@ -2942,11 +2942,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">рефрижераторный  </t>
+          <t xml:space="preserve">сжатом  </t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.3798225958709091</v>
+        <v>0.4771002631226767</v>
       </c>
     </row>
     <row r="192">
@@ -2955,11 +2955,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve">сжатого  </t>
+          <t xml:space="preserve">пневмопотоке  </t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.3798234971739147</v>
+        <v>0.4771002631226767</v>
       </c>
     </row>
     <row r="193">
@@ -2968,11 +2968,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve">холодильник  </t>
+          <t xml:space="preserve">гребным  </t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.4186162748413672</v>
+        <v>0.4771002631226767</v>
       </c>
     </row>
     <row r="194">
@@ -2981,11 +2981,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve">салона  </t>
+          <t xml:space="preserve">плавучее  </t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.4268945863274308</v>
+        <v>0.4923477475966137</v>
       </c>
     </row>
     <row r="195">
@@ -2994,11 +2994,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">обогрева  </t>
+          <t xml:space="preserve">морская  </t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.5024592578105113</v>
+        <v>0.507742230157148</v>
       </c>
     </row>
     <row r="196">
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve">кондиционирования  </t>
+          <t xml:space="preserve">судно  </t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.5217081753121903</v>
+        <v>0.5787356304944498</v>
       </c>
     </row>
     <row r="197">
@@ -3020,11 +3020,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">воздуха  </t>
+          <t xml:space="preserve">плавучая  </t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.5871967517816842</v>
+        <v>0.6618575125326354</v>
       </c>
     </row>
     <row r="198">
@@ -3033,11 +3033,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve">охлаждения  </t>
+          <t xml:space="preserve">судна  </t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.6725571419304475</v>
+        <v>0.7423586790658335</v>
       </c>
     </row>
     <row r="199">
@@ -3061,11 +3061,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">ледовых  </t>
+          <t xml:space="preserve">камере  </t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.4452564044966856</v>
+        <v>0.689867376504957</v>
       </c>
     </row>
     <row r="201">
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">ледяного  </t>
+          <t xml:space="preserve">человека  </t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.4452564044966856</v>
+        <v>0.7136481652222187</v>
       </c>
     </row>
     <row r="202">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">передвижения  </t>
+          <t xml:space="preserve">деятельности  </t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.4462333339114556</v>
+        <v>0.7136481652222187</v>
       </c>
     </row>
     <row r="203">
@@ -3100,11 +3100,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">снегоход  </t>
+          <t xml:space="preserve">ограждение  </t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.4794071989042634</v>
+        <v>0.823717359120864</v>
       </c>
     </row>
     <row r="204">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">снегохода  </t>
+          <t xml:space="preserve">защиты  </t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.4794071989042634</v>
+        <v>0.8237887035828491</v>
       </c>
     </row>
     <row r="205">
@@ -3126,11 +3126,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve">уборки  </t>
+          <t xml:space="preserve">реверберационной  </t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.4947906953077241</v>
+        <v>0.825192623154717</v>
       </c>
     </row>
     <row r="206">
@@ -3139,11 +3139,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve">снежной  </t>
+          <t xml:space="preserve">кольцевого  </t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.5344350327123818</v>
+        <v>0.8377315368562537</v>
       </c>
     </row>
     <row r="207">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve">ледяной  </t>
+          <t xml:space="preserve">акустическое  </t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.557429401428889</v>
+        <v>0.9319837665789213</v>
       </c>
     </row>
     <row r="208">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve">снега  </t>
+          <t xml:space="preserve">оператора  </t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.6646933419132138</v>
+        <v>1.099920523129694</v>
       </c>
     </row>
     <row r="209">
@@ -3178,11 +3178,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">льда  </t>
+          <t xml:space="preserve">акустической  </t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.6776124591991165</v>
+        <v>1.190099124358528</v>
       </c>
     </row>
     <row r="210">
@@ -3206,11 +3206,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve">помещениях  </t>
+          <t xml:space="preserve">ослепления  </t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.6506874398357672</v>
+        <v>0.5121134006056084</v>
       </c>
     </row>
     <row r="212">
@@ -3219,11 +3219,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">помещения  </t>
+          <t xml:space="preserve">против  </t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.7802132020764385</v>
+        <v>0.5121134006056084</v>
       </c>
     </row>
     <row r="213">
@@ -3232,11 +3232,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve">акустическая  </t>
+          <t xml:space="preserve">светом  </t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.7987152619105741</v>
+        <v>0.5121134006056084</v>
       </c>
     </row>
     <row r="214">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">производственных  </t>
+          <t xml:space="preserve">тёмное  </t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.8425702186180586</v>
+        <v>0.5121134006056084</v>
       </c>
     </row>
     <row r="215">
@@ -3258,11 +3258,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve">помещений  </t>
+          <t xml:space="preserve">освещение  </t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.8499599494910178</v>
+        <v>0.5520639473656487</v>
       </c>
     </row>
     <row r="216">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">помещение  </t>
+          <t xml:space="preserve">осветительный  </t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.8741373500899904</v>
+        <v>0.5520639473656487</v>
       </c>
     </row>
     <row r="217">
@@ -3284,11 +3284,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve">оборудованием  </t>
+          <t xml:space="preserve">освещением  </t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.8955401007414788</v>
+        <v>0.5864198717347915</v>
       </c>
     </row>
     <row r="218">
@@ -3297,11 +3297,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve">шумозащитным  </t>
+          <t xml:space="preserve">освещения  </t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1.039109619126643</v>
+        <v>0.6111836068121492</v>
       </c>
     </row>
     <row r="219">
@@ -3310,11 +3310,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve">комфортное  </t>
+          <t xml:space="preserve">фар  </t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1.073118640720858</v>
+        <v>0.6166692917919752</v>
       </c>
     </row>
     <row r="220">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">акустически  </t>
+          <t xml:space="preserve">светофора  </t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.102099307981662</v>
+        <v>0.6166692917919752</v>
       </c>
     </row>
     <row r="221">
@@ -3351,11 +3351,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve">объектах  </t>
+          <t xml:space="preserve">сейсмической  </t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.5113556860752898</v>
+        <v>0.5413698300598176</v>
       </c>
     </row>
     <row r="223">
@@ -3364,11 +3364,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">беспилотного  </t>
+          <t xml:space="preserve">фундамента  </t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.5303229205565356</v>
+        <v>0.5877759494644045</v>
       </c>
     </row>
     <row r="224">
@@ -3377,11 +3377,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve">организации  </t>
+          <t xml:space="preserve">вибрации  </t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.5576570032108449</v>
+        <v>0.7003070087860236</v>
       </c>
     </row>
     <row r="225">
@@ -3390,11 +3390,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">летательных  </t>
+          <t xml:space="preserve">уровней  </t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.5616754356141637</v>
+        <v>0.7185028011471905</v>
       </c>
     </row>
     <row r="226">
@@ -3403,11 +3403,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve">опасных  </t>
+          <t xml:space="preserve">регистрации  </t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.564433124405007</v>
+        <v>0.7393269440209904</v>
       </c>
     </row>
     <row r="227">
@@ -3416,11 +3416,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve">беспилотный  </t>
+          <t xml:space="preserve">повышенных  </t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.6008349228598328</v>
+        <v>0.82960149925976</v>
       </c>
     </row>
     <row r="228">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve">беспилотных  </t>
+          <t xml:space="preserve">здание  </t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.6843705041135153</v>
+        <v>1.001985669639304</v>
       </c>
     </row>
     <row r="229">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve">беспилотными  </t>
+          <t xml:space="preserve">сейсмостойкое  </t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.7619760093761588</v>
+        <v>1.082276107439492</v>
       </c>
     </row>
     <row r="230">
@@ -3455,11 +3455,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve">аппаратами  </t>
+          <t xml:space="preserve">малошумное  </t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.775118286166779</v>
+        <v>1.156115116525211</v>
       </c>
     </row>
     <row r="231">
@@ -3468,11 +3468,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve">летательными  </t>
+          <t xml:space="preserve">производственное  </t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.7806824797614619</v>
+        <v>1.176379166368605</v>
       </c>
     </row>
     <row r="232">
@@ -3496,11 +3496,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve">исследования  </t>
+          <t xml:space="preserve">типа  </t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.7237973612093754</v>
+        <v>0.802397065489469</v>
       </c>
     </row>
     <row r="234">
@@ -3509,11 +3509,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">акустических  </t>
+          <t xml:space="preserve">резонансного  </t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.7293596029391223</v>
+        <v>0.8803824971253327</v>
       </c>
     </row>
     <row r="235">
@@ -3522,11 +3522,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve">камере  </t>
+          <t xml:space="preserve">элемент  </t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.7683213839035938</v>
+        <v>0.9034187616089147</v>
       </c>
     </row>
     <row r="236">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">здание  </t>
+          <t xml:space="preserve">винтового  </t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.8253880769604656</v>
+        <v>0.9351702705915864</v>
       </c>
     </row>
     <row r="237">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve">уровнем  </t>
+          <t xml:space="preserve">акустическая  </t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.8529381779003699</v>
+        <v>0.9439218406497478</v>
       </c>
     </row>
     <row r="238">
@@ -3561,11 +3561,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve">заглушенной  </t>
+          <t xml:space="preserve">симметричный  </t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.8608088108958959</v>
+        <v>1.065778185975265</v>
       </c>
     </row>
     <row r="239">
@@ -3574,11 +3574,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve">сейсмостойкое  </t>
+          <t xml:space="preserve">оборудованием  </t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.8703670212299262</v>
+        <v>1.1010555179416</v>
       </c>
     </row>
     <row r="240">
@@ -3587,11 +3587,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve">низким  </t>
+          <t xml:space="preserve">цеха  </t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.8975827601589865</v>
+        <v>1.240661989721183</v>
       </c>
     </row>
     <row r="241">
@@ -3600,11 +3600,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve">малошумное  </t>
+          <t xml:space="preserve">звукопоглощающий  </t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.9619202571971003</v>
+        <v>1.336442085755827</v>
       </c>
     </row>
     <row r="242">
@@ -3613,11 +3613,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve">производственное  </t>
+          <t xml:space="preserve">виброактивным  </t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1.13959202194213</v>
+        <v>1.374870742548427</v>
       </c>
     </row>
     <row r="243">
@@ -3641,11 +3641,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve">звукопоглощающая  </t>
+          <t xml:space="preserve">зашумленной  </t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.4961500693018133</v>
+        <v>0.5311140791038926</v>
       </c>
     </row>
     <row r="245">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve">зданий  </t>
+          <t xml:space="preserve">речи  </t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.6807316150691569</v>
+        <v>0.5311140791038926</v>
       </c>
     </row>
     <row r="246">
@@ -3667,11 +3667,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve">облицовка  </t>
+          <t xml:space="preserve">объектов  </t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.7057747857339172</v>
+        <v>0.8434000139650241</v>
       </c>
     </row>
     <row r="247">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve">производственных  </t>
+          <t xml:space="preserve">характеристик  </t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.724064884019921</v>
+        <v>1.009749753558014</v>
       </c>
     </row>
     <row r="248">
@@ -3693,11 +3693,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve">кожух  </t>
+          <t xml:space="preserve">исследования  </t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.030542342914156</v>
+        <v>1.077642992719527</v>
       </c>
     </row>
     <row r="249">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve">здание  </t>
+          <t xml:space="preserve">акустических  </t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1.067646542126712</v>
+        <v>1.085556313329514</v>
       </c>
     </row>
     <row r="250">
@@ -3719,11 +3719,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve">звукоизолирующий  </t>
+          <t xml:space="preserve">камере  </t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1.079144059446427</v>
+        <v>1.139185848380218</v>
       </c>
     </row>
     <row r="251">
@@ -3732,11 +3732,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve">малошумная  </t>
+          <t xml:space="preserve">здание  </t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1.079196878563537</v>
+        <v>1.203634257250564</v>
       </c>
     </row>
     <row r="252">
@@ -3745,11 +3745,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve">сейсмостойких  </t>
+          <t xml:space="preserve">заглушенной  </t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.111749224033572</v>
+        <v>1.270547949283157</v>
       </c>
     </row>
     <row r="253">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1.146823446626923</v>
+        <v>1.300083063250694</v>
       </c>
     </row>
     <row r="254">
@@ -3786,11 +3786,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve">против  </t>
+          <t xml:space="preserve">водой  </t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.4914657283063695</v>
+        <v>0.496543878420482</v>
       </c>
     </row>
     <row r="256">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve">суток  </t>
+          <t xml:space="preserve">подводная  </t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.4914657283063695</v>
+        <v>0.5100202068892996</v>
       </c>
     </row>
     <row r="257">
@@ -3812,11 +3812,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">ослепления  </t>
+          <t xml:space="preserve">спасательный  </t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.4914657283063695</v>
+        <v>0.559886531397346</v>
       </c>
     </row>
     <row r="258">
@@ -3825,11 +3825,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve">тёмное  </t>
+          <t xml:space="preserve">подводным  </t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.4914657283063695</v>
+        <v>0.5706823645651775</v>
       </c>
     </row>
     <row r="259">
@@ -3838,11 +3838,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve">осветительный  </t>
+          <t xml:space="preserve">лодка  </t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.5291607392624358</v>
+        <v>0.5706823645651775</v>
       </c>
     </row>
     <row r="260">
@@ -3851,11 +3851,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">освещение  </t>
+          <t xml:space="preserve">подводных  </t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.5291607392624358</v>
+        <v>0.7022190871755829</v>
       </c>
     </row>
     <row r="261">
@@ -3864,11 +3864,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve">освещением  </t>
+          <t xml:space="preserve">лодки  </t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.5614951260949586</v>
+        <v>0.8206496707348678</v>
       </c>
     </row>
     <row r="262">
@@ -3877,11 +3877,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve">освещения  </t>
+          <t xml:space="preserve">подводный  </t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.578098742968808</v>
+        <v>0.8989766729413485</v>
       </c>
     </row>
     <row r="263">
@@ -3890,11 +3890,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve">фар  </t>
+          <t xml:space="preserve">подводной  </t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.5898994375641468</v>
+        <v>0.9077215083903309</v>
       </c>
     </row>
     <row r="264">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve">светофора  </t>
+          <t xml:space="preserve">подводного  </t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.5898994375641468</v>
+        <v>0.9077215083903309</v>
       </c>
     </row>
     <row r="265">
@@ -3931,11 +3931,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve">ведущее  </t>
+          <t xml:space="preserve">предохранительных  </t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.4134333125394883</v>
+        <v>0.6528578395417234</v>
       </c>
     </row>
     <row r="267">
@@ -3944,11 +3944,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve">шагающее  </t>
+          <t xml:space="preserve">легкосбрасываемого  </t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.4134333125394883</v>
+        <v>0.6528578395417234</v>
       </c>
     </row>
     <row r="268">
@@ -3957,11 +3957,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve">шагового  </t>
+          <t xml:space="preserve">подбора  </t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.4134333125394883</v>
+        <v>0.6528578395417234</v>
       </c>
     </row>
     <row r="269">
@@ -3970,11 +3970,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve">кран  </t>
+          <t xml:space="preserve">взрывоопасных  </t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.4236442445006377</v>
+        <v>0.7078130027420959</v>
       </c>
     </row>
     <row r="270">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">хода  </t>
+          <t xml:space="preserve">предохранительная  </t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.4236442445006377</v>
+        <v>0.753244430841677</v>
       </c>
     </row>
     <row r="271">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve">рулевой  </t>
+          <t xml:space="preserve">сооружение  </t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.4291111116763312</v>
+        <v>0.8206366203751352</v>
       </c>
     </row>
     <row r="272">
@@ -4009,11 +4009,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve">движителя  </t>
+          <t xml:space="preserve">ограждения  </t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.4448897413637901</v>
+        <v>0.8970186662954811</v>
       </c>
     </row>
     <row r="273">
@@ -4022,11 +4022,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve">тормозной  </t>
+          <t xml:space="preserve">взрывозащитная  </t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.4984981660406395</v>
+        <v>0.9242472815968386</v>
       </c>
     </row>
     <row r="274">
@@ -4035,11 +4035,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve">колеса  </t>
+          <t xml:space="preserve">зданий  </t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.643071321880843</v>
+        <v>0.9853612086966927</v>
       </c>
     </row>
     <row r="275">
@@ -4048,11 +4048,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve">колесо  </t>
+          <t xml:space="preserve">разрушающаяся  </t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.8854121350702593</v>
+        <v>1.053804037191398</v>
       </c>
     </row>
     <row r="276">
@@ -4076,11 +4076,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve">цевочная  </t>
+          <t xml:space="preserve">тумблерный  </t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.4278861441631185</v>
+        <v>0.7415164083737791</v>
       </c>
     </row>
     <row r="278">
@@ -4089,11 +4089,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve">цилиндров  </t>
+          <t xml:space="preserve">противовзломный  </t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.4278861441631185</v>
+        <v>0.7415164083737791</v>
       </c>
     </row>
     <row r="279">
@@ -4102,11 +4102,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve">реактивных  </t>
+          <t xml:space="preserve">ключом  </t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.4278861441631185</v>
+        <v>0.7415164083737791</v>
       </c>
     </row>
     <row r="280">
@@ -4115,11 +4115,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve">усилитель  </t>
+          <t xml:space="preserve">ключей  </t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.4278861441631185</v>
+        <v>0.7415164083737791</v>
       </c>
     </row>
     <row r="281">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve">ходе  </t>
+          <t xml:space="preserve">замков  </t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.4278861441631185</v>
+        <v>0.7891406146406001</v>
       </c>
     </row>
     <row r="282">
@@ -4141,11 +4141,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve">амортизации  </t>
+          <t xml:space="preserve">ключа  </t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.4526435263363657</v>
+        <v>0.8133572465247637</v>
       </c>
     </row>
     <row r="283">
@@ -4154,11 +4154,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve">приводом  </t>
+          <t xml:space="preserve">цилиндровый  </t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.4560227458465425</v>
+        <v>0.8329296470136393</v>
       </c>
     </row>
     <row r="284">
@@ -4167,11 +4167,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve">работу  </t>
+          <t xml:space="preserve">ключ  </t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.4700206554552821</v>
+        <v>1.028668905643025</v>
       </c>
     </row>
     <row r="285">
@@ -4180,11 +4180,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve">двигателя  </t>
+          <t xml:space="preserve">замок  </t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.4939295729123928</v>
+        <v>1.180291994479374</v>
       </c>
     </row>
     <row r="286">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve">привода  </t>
+          <t xml:space="preserve">замка  </t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.5310559620781782</v>
+        <v>1.190566990048274</v>
       </c>
     </row>
     <row r="287">
@@ -4210,876 +4210,6 @@
         </is>
       </c>
       <c r="C287" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t xml:space="preserve">протекторов  </t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>0.4875185775892109</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t xml:space="preserve">контроля  </t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>0.5007233815156497</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шине  </t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>0.5355251730183479</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">накачки  </t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>0.5355251730183479</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t xml:space="preserve">колес  </t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>0.5425929305255218</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ошиповки  </t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>0.561065994416466</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шина  </t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>0.6096675889420222</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">давления  </t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>0.6665327637396204</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шин  </t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>0.9359925166586415</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шины  </t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>0.968535723120737</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t xml:space="preserve">наблюдение  </t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>0.4901117798066239</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t xml:space="preserve">сенсорных  </t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>0.4901117798066239</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t xml:space="preserve">натурного  </t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>0.4901117798066239</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">полноповоротный  </t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>0.4901117798066239</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">башмакосбрасывателей  </t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>0.4901117798066239</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t xml:space="preserve">дополненной  </t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>0.4901117798066239</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t xml:space="preserve">информации  </t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>0.5084917365186952</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t xml:space="preserve">записей  </t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>0.5640504090577102</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t xml:space="preserve">представления  </t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>0.564051747525549</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t xml:space="preserve">мобильный  </t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>0.5721949832897867</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t xml:space="preserve">помещение  </t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>0.8354289704018203</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t xml:space="preserve">потока  </t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>0.8670541667949676</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t xml:space="preserve">слоя  </t>
-        </is>
-      </c>
-      <c r="C312" t="n">
-        <v>0.8712587611873813</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t xml:space="preserve">водного  </t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>0.8888476771130871</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t xml:space="preserve">канала  </t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>0.9127902986990505</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t xml:space="preserve">верхнего  </t>
-        </is>
-      </c>
-      <c r="C315" t="n">
-        <v>0.9178742567410044</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t xml:space="preserve">реки  </t>
-        </is>
-      </c>
-      <c r="C316" t="n">
-        <v>0.9337920294217465</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t xml:space="preserve">замораживания  </t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>1.078607170626352</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t xml:space="preserve">зимний  </t>
-        </is>
-      </c>
-      <c r="C318" t="n">
-        <v>1.088619108554852</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t xml:space="preserve">период  </t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>1.088619108554852</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t xml:space="preserve">бескаркасная  </t>
-        </is>
-      </c>
-      <c r="C321" t="n">
-        <v>0.5488908098816282</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t xml:space="preserve">обтекаемая  </t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>0.5488908098816282</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t xml:space="preserve">стекле  </t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v>0.5643238348091729</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t xml:space="preserve">переднего  </t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v>0.6414674242042713</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t xml:space="preserve">щетка  </t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>0.6513518436353916</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ветрового  </t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>0.6911527224865688</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t xml:space="preserve">стекло  </t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v>0.7261160129764064</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t xml:space="preserve">стеклоочиститель  </t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>0.7573575639814005</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t xml:space="preserve">стеклоочистителя  </t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>0.9155361931040731</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t xml:space="preserve">стекла  </t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v>0.9155361931040731</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t xml:space="preserve">кольцеобразной  </t>
-        </is>
-      </c>
-      <c r="C332" t="n">
-        <v>0.7059122644635862</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t xml:space="preserve">вогнутостью  </t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>0.7059122644635862</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t xml:space="preserve">стержнеобразный  </t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>0.7059122644635862</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шиповой  </t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>0.7059122644635862</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шпилька  </t>
-        </is>
-      </c>
-      <c r="C336" t="n">
-        <v>0.9049288458439765</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шиповая  </t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>0.9049288458439765</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t xml:space="preserve">экран  </t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>1.328369290411115</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t xml:space="preserve">акустический  </t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>1.357994228257024</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t xml:space="preserve">шина  </t>
-        </is>
-      </c>
-      <c r="C340" t="n">
-        <v>1.649665292535297</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t xml:space="preserve">пневматическая  </t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>1.831240664144322</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ключей  </t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>0.7186667670137646</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t xml:space="preserve">тумблерный  </t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>0.7186667670137646</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t xml:space="preserve">противовзломный  </t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v>0.7186667670137646</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ключом  </t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>0.7186667670137646</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t xml:space="preserve">замков  </t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>0.7627851740627283</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ключа  </t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>0.7839395565164818</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t xml:space="preserve">цилиндровый  </t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>0.8034957787634714</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ключ  </t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>0.9892659056485047</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t xml:space="preserve">замок  </t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>1.122379673481005</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t xml:space="preserve">замка  </t>
-        </is>
-      </c>
-      <c r="C352" t="n">
-        <v>1.138344867787374</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
         <is>
           <t>##############</t>
         </is>
